--- a/SchedulingData/dynamic10/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>231.54</v>
+        <v>204.26</v>
       </c>
       <c r="D2" t="n">
-        <v>281.4</v>
+        <v>247.06</v>
       </c>
       <c r="E2" t="n">
-        <v>13.98</v>
+        <v>14.464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127.98</v>
+        <v>208.64</v>
       </c>
       <c r="D3" t="n">
-        <v>168.76</v>
+        <v>262.7</v>
       </c>
       <c r="E3" t="n">
-        <v>19.544</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.6</v>
+        <v>219</v>
       </c>
       <c r="D4" t="n">
-        <v>288.64</v>
+        <v>267.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13.256</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>281.4</v>
+        <v>212.7</v>
       </c>
       <c r="D5" t="n">
-        <v>339.6</v>
+        <v>257.56</v>
       </c>
       <c r="E5" t="n">
-        <v>9.779999999999999</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>223.54</v>
+        <v>262.7</v>
       </c>
       <c r="D6" t="n">
-        <v>280.94</v>
+        <v>336.16</v>
       </c>
       <c r="E6" t="n">
-        <v>13.536</v>
+        <v>10.124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>260.76</v>
+        <v>258.58</v>
       </c>
       <c r="D7" t="n">
-        <v>313.22</v>
+        <v>296.28</v>
       </c>
       <c r="E7" t="n">
-        <v>10.448</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="8">
@@ -580,74 +580,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232.46</v>
+        <v>257.56</v>
       </c>
       <c r="D8" t="n">
-        <v>303.2</v>
+        <v>288.44</v>
       </c>
       <c r="E8" t="n">
-        <v>12.82</v>
+        <v>14.276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>280.94</v>
+        <v>267.6</v>
       </c>
       <c r="D9" t="n">
-        <v>325.22</v>
+        <v>324.16</v>
       </c>
       <c r="E9" t="n">
-        <v>10.728</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>303.2</v>
+        <v>324.16</v>
       </c>
       <c r="D10" t="n">
-        <v>364.9</v>
+        <v>361.98</v>
       </c>
       <c r="E10" t="n">
-        <v>10.74</v>
+        <v>8.172000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>313.22</v>
+        <v>288.44</v>
       </c>
       <c r="D11" t="n">
-        <v>357.64</v>
+        <v>355.74</v>
       </c>
       <c r="E11" t="n">
-        <v>8.116</v>
+        <v>12.156</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>357.64</v>
+        <v>336.16</v>
       </c>
       <c r="D12" t="n">
-        <v>400.46</v>
+        <v>394.28</v>
       </c>
       <c r="E12" t="n">
-        <v>5.464</v>
+        <v>6.932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>364.9</v>
+        <v>247.06</v>
       </c>
       <c r="D13" t="n">
-        <v>404.52</v>
+        <v>298.2</v>
       </c>
       <c r="E13" t="n">
-        <v>8.407999999999999</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>339.6</v>
+        <v>361.98</v>
       </c>
       <c r="D14" t="n">
-        <v>395.84</v>
+        <v>406.4</v>
       </c>
       <c r="E14" t="n">
-        <v>6.756</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>404.52</v>
+        <v>394.28</v>
       </c>
       <c r="D15" t="n">
-        <v>463.7</v>
+        <v>434.68</v>
       </c>
       <c r="E15" t="n">
-        <v>5.6</v>
+        <v>4.512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>288.64</v>
+        <v>212.36</v>
       </c>
       <c r="D16" t="n">
-        <v>328.04</v>
+        <v>261.54</v>
       </c>
       <c r="E16" t="n">
-        <v>9.956</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>328.04</v>
+        <v>261.54</v>
       </c>
       <c r="D17" t="n">
-        <v>390.44</v>
+        <v>332.44</v>
       </c>
       <c r="E17" t="n">
-        <v>7.316</v>
+        <v>8.036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>390.44</v>
+        <v>298.2</v>
       </c>
       <c r="D18" t="n">
-        <v>429.3</v>
+        <v>355.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.56</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="19">
@@ -789,245 +789,188 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>429.3</v>
+        <v>296.28</v>
       </c>
       <c r="D19" t="n">
-        <v>472.54</v>
+        <v>350.8</v>
       </c>
       <c r="E19" t="n">
-        <v>1.856</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>472.54</v>
+        <v>332.44</v>
       </c>
       <c r="D20" t="n">
-        <v>540.73</v>
+        <v>374.56</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>5.444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>395.84</v>
+        <v>350.8</v>
       </c>
       <c r="D21" t="n">
-        <v>454.44</v>
+        <v>424.7</v>
       </c>
       <c r="E21" t="n">
-        <v>3.516</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>454.44</v>
+        <v>355.5</v>
       </c>
       <c r="D22" t="n">
-        <v>500.8</v>
+        <v>408.54</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>5.636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>500.8</v>
+        <v>374.56</v>
       </c>
       <c r="D23" t="n">
-        <v>576.6</v>
+        <v>433.76</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>168.76</v>
+        <v>355.74</v>
       </c>
       <c r="D24" t="n">
-        <v>236.56</v>
+        <v>412.1</v>
       </c>
       <c r="E24" t="n">
-        <v>14.384</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>400.46</v>
+        <v>408.54</v>
       </c>
       <c r="D25" t="n">
-        <v>442.86</v>
+        <v>452.3</v>
       </c>
       <c r="E25" t="n">
-        <v>3.344</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>236.56</v>
+        <v>412.1</v>
       </c>
       <c r="D26" t="n">
-        <v>268.88</v>
+        <v>468.7</v>
       </c>
       <c r="E26" t="n">
-        <v>11.792</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>442.86</v>
+        <v>424.7</v>
       </c>
       <c r="D27" t="n">
-        <v>485.46</v>
+        <v>508.78</v>
       </c>
       <c r="E27" t="n">
-        <v>0.704</v>
+        <v>3.092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>485.46</v>
+        <v>406.4</v>
       </c>
       <c r="D28" t="n">
-        <v>580.55</v>
+        <v>458.04</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond63</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>463.7</v>
-      </c>
-      <c r="D29" t="n">
-        <v>552.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>pond49</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>325.22</v>
-      </c>
-      <c r="D30" t="n">
-        <v>376.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.231999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>pond16</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>540.73</v>
-      </c>
-      <c r="D31" t="n">
-        <v>576.9299999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>27.58</v>
+        <v>2.816</v>
       </c>
     </row>
   </sheetData>
